--- a/Схема.xlsx
+++ b/Схема.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman\OneDrive\Documents\GitHub\Meteo_32x32_CO2_STM32_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D6F3BA-4F03-4BDA-B0AF-A48CBD650285}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1176CB11-447E-4000-805E-0CFAE9CBF54D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7B58DBFA-49C3-43CC-B88B-DB02A6162DD4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>кн2</t>
   </si>
@@ -89,6 +89,9 @@
   <si>
     <t>MH-Z19B</t>
   </si>
+  <si>
+    <t>5V</t>
+  </si>
 </sst>
 </file>
 
@@ -550,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -622,6 +625,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1574,6 +1580,1250 @@
         <a:ln w="28575">
           <a:solidFill>
             <a:srgbClr val="663300"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>59531</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>2380</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9832401E-D97C-48B5-A472-CE0DECC561CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="273844" y="5512593"/>
+          <a:ext cx="3705225" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>188117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>273844</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>178592</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Рисунок 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3628F701-378E-4B63-BC63-F0C9071F795F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="271463" y="6450805"/>
+          <a:ext cx="3705225" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>283369</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Рисунок 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43379577-FC80-4794-A993-DFFD9D2F863C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="280988" y="7400925"/>
+          <a:ext cx="3705225" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>52386</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>269080</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Рисунок 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B08B6F1-57C1-4BA0-8046-54EC2CB44BB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266699" y="8339137"/>
+          <a:ext cx="3705225" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>304341</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>70</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>304341</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Прямая соединительная линия 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8725CE7E-807C-4CB9-920E-4138412B423F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10061513" y="6048445"/>
+          <a:ext cx="0" cy="4190930"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>10156</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>177894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>10156</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Прямая соединительная линия 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642F9562-DF5D-4D20-BFE5-227A8A27E58B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9767328" y="5464269"/>
+          <a:ext cx="0" cy="4584606"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>113109</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>180694</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>18210</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>180694</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Прямая соединительная линия 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7828F490-67F7-4EBA-83C9-FC94FD98929D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2589609" y="10039069"/>
+          <a:ext cx="7185773" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>303610</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>186648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>311663</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>186648</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Прямая соединительная линия 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{138E3EEC-600E-4B42-9AD3-D57094F9070F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2464594" y="10235523"/>
+          <a:ext cx="7604241" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>120884</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>2872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>120884</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Прямая соединительная линия 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0481AA5E-D684-4981-8417-42328347FC21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2597384" y="9670747"/>
+          <a:ext cx="0" cy="390034"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>313866</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>188189</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>313866</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>5953</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Прямая соединительная линия 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B67E053-C582-482F-9263-C2BE7ACF09F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2474850" y="9665564"/>
+          <a:ext cx="0" cy="579764"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>265510</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>65484</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>130969</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>166408</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Прямая соединительная линия 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F45F0F8-1A80-4444-941F-72FE54416342}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="890588" y="8209359"/>
+          <a:ext cx="2347912" cy="1053424"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="25400">
+            <a:schemeClr val="bg1"/>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25004</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>182165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>164307</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>92589</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Прямая соединительная линия 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3477A8E2-CEFD-469F-80D4-9C6856C640CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="923926" y="7183040"/>
+          <a:ext cx="2347912" cy="1053424"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="25400">
+            <a:schemeClr val="bg1"/>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>201217</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>167876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>78300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Прямая соединительная линия 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA4582A3-FF49-4A0F-9D7C-D38BF6BF9099}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="826295" y="6216251"/>
+          <a:ext cx="2347912" cy="1053424"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="25400">
+            <a:schemeClr val="bg1"/>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>273284</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>273284</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>158352</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Прямая соединительная линия 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF2027A1-AE2F-4459-BFA9-E44EFDE94350}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2118753" y="8036719"/>
+          <a:ext cx="0" cy="456008"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="25400">
+            <a:schemeClr val="bg1"/>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>156703</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>90558</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>156703</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Прямая соединительная линия 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{855EBD83-9D52-4B91-B812-85E2E58C4614}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2002172" y="8043933"/>
+          <a:ext cx="0" cy="433317"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="25400">
+            <a:schemeClr val="bg1"/>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>288762</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>98822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>288762</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>173830</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Прямая соединительная линия 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4561E1D-743B-48BE-B01F-5B931414B3E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2134231" y="7099697"/>
+          <a:ext cx="0" cy="456008"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="25400">
+            <a:schemeClr val="bg1"/>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>172181</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>106036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>172181</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>158353</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Прямая соединительная линия 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52BB7BDF-15CD-4762-954E-EE64C7E1E915}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2017650" y="7106911"/>
+          <a:ext cx="0" cy="433317"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="25400">
+            <a:schemeClr val="bg1"/>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>283268</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>283268</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>170258</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Прямая соединительная линия 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30F8AEDF-B657-4CB1-B90B-4C2E23531449}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2128737" y="6143625"/>
+          <a:ext cx="0" cy="456008"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="25400">
+            <a:schemeClr val="bg1"/>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>102464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Прямая соединительная линия 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EDCD495-5ED9-4B1E-9B6A-3C0015A4806C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2012156" y="6150839"/>
+          <a:ext cx="0" cy="433317"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="25400">
+            <a:schemeClr val="bg1"/>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>178594</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1094</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>702</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1094</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Прямая соединительная линия 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFED009A-10F8-4BDE-B882-2DD6E3840410}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="178594" y="2239469"/>
+          <a:ext cx="3245155" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76104</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>135243</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76104</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Прямая соединительная линия 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B26A4ABB-9E91-4AC6-9253-F6F9AA9419AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="166687" y="9743979"/>
+          <a:ext cx="3076087" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>182166</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>5953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>182166</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>85629</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Прямая соединительная линия 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D3D0186-BA2E-4524-980A-6B6127A1E367}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="182166" y="2244328"/>
+          <a:ext cx="0" cy="7509176"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1896,8 +3146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D2ECBC-B31D-4114-8D8A-D16390B26B24}">
   <dimension ref="E1:AL39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AX18" sqref="AX18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AM15" sqref="AM15:AN15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2168,6 +3418,9 @@
     <row r="30" spans="18:38" x14ac:dyDescent="0.25">
       <c r="V30" s="16"/>
       <c r="Z30" s="5"/>
+      <c r="AI30" s="49" t="s">
+        <v>19</v>
+      </c>
       <c r="AJ30" s="26"/>
       <c r="AK30" s="26"/>
       <c r="AL30" s="45"/>
